--- a/2025/Финальный_рассчет.xlsx
+++ b/2025/Финальный_рассчет.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\github.com\daily_duty\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Repository\s.panin\daily_duty\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5852BDC-5F79-4D14-BD6E-7EA1F748F45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5974DEC8-B0DF-4F94-83A2-137ABC0DADFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{0D654529-63CE-47DE-A66B-D517902E57F3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D654529-63CE-47DE-A66B-D517902E57F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>29 мая</t>
   </si>
@@ -61,6 +70,72 @@
   </si>
   <si>
     <t>9 июня</t>
+  </si>
+  <si>
+    <t>2 июня</t>
+  </si>
+  <si>
+    <t>Тратил</t>
+  </si>
+  <si>
+    <t>Когда</t>
+  </si>
+  <si>
+    <t>Сколько</t>
+  </si>
+  <si>
+    <t>Где</t>
+  </si>
+  <si>
+    <t>На человека</t>
+  </si>
+  <si>
+    <t>Сколько человек</t>
+  </si>
+  <si>
+    <t>Громов Б</t>
+  </si>
+  <si>
+    <t>Всего потратил 4 человека</t>
+  </si>
+  <si>
+    <t>Всего потратил 3 человека</t>
+  </si>
+  <si>
+    <t>Должен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Громов скидывает </t>
+  </si>
+  <si>
+    <t>Панину А</t>
+  </si>
+  <si>
+    <t>Волкова скидывает</t>
+  </si>
+  <si>
+    <t>Панину С</t>
+  </si>
+  <si>
+    <t>Панин А скидывает</t>
+  </si>
+  <si>
+    <t>По итогу 1 части</t>
+  </si>
+  <si>
+    <t>По итогу 2 части</t>
+  </si>
+  <si>
+    <t>Волковой А</t>
+  </si>
+  <si>
+    <t>Панин С скидывает</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Громов скидывает</t>
   </si>
 </sst>
 </file>
@@ -77,18 +152,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,7 +174,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,21 +489,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5B91C3-ABC0-4130-9042-71DD9FB25C9E}">
-  <dimension ref="A2:F8"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -456,9 +547,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <f>5790</f>
+        <v>5790</v>
+      </c>
+      <c r="C3">
+        <f>B3/E3</f>
+        <v>1447.5</v>
+      </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
@@ -469,16 +569,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <f>SUM(B2:B3)</f>
-        <v>7505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -499,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -520,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -541,13 +641,224 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <f>SUM(B6:B7)</f>
         <v>4859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <f>B3</f>
+        <v>5790</v>
+      </c>
+      <c r="C11">
+        <f>B2</f>
+        <v>7505</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>SUM(B11:E11)</f>
+        <v>13295</v>
+      </c>
+      <c r="G11">
+        <f>F11/4</f>
+        <v>3323.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <f>B11-$G$11</f>
+        <v>2466.25</v>
+      </c>
+      <c r="C12">
+        <f>C11-$G$11</f>
+        <v>4181.25</v>
+      </c>
+      <c r="D12">
+        <f>D11-$G$11</f>
+        <v>-3323.75</v>
+      </c>
+      <c r="E12">
+        <f>E11-$G$11</f>
+        <v>-3323.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>B5</f>
+        <v>1010</v>
+      </c>
+      <c r="D13">
+        <f>B6+B7</f>
+        <v>4859</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>SUM(B13:E13)</f>
+        <v>5869</v>
+      </c>
+      <c r="G13">
+        <f>F13/3</f>
+        <v>1956.3333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <f>B13-$G$13</f>
+        <v>-1956.3333333333333</v>
+      </c>
+      <c r="C14">
+        <f>C13-$G$13</f>
+        <v>-946.33333333333326</v>
+      </c>
+      <c r="D14">
+        <f>D13-$G$13</f>
+        <v>2902.666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <f>E12</f>
+        <v>-3323.75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f>D12</f>
+        <v>-3323.75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <f>B12-G11</f>
+        <v>-857.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <f>B14</f>
+        <v>-1956.3333333333333</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <f>C14</f>
+        <v>-946.33333333333326</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <f>C18</f>
+        <v>-3323.75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f>C19-C23</f>
+        <v>-2377.416666666667</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <f>C20</f>
+        <v>-857.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
